--- a/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-dificil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-dificil-regular.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1174">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>43.327 (205)</t>
   </si>
   <si>
-    <t>11.093 (205)</t>
+    <t>11.098 (205)</t>
   </si>
   <si>
     <t>10.624 (205)</t>
@@ -175,7 +175,7 @@
     <t>43.992 (129)</t>
   </si>
   <si>
-    <t>10.891 (129)</t>
+    <t>10.876 (129)</t>
   </si>
   <si>
     <t>10.767 (129)</t>
@@ -229,7 +229,7 @@
     <t>35.5 (20)</t>
   </si>
   <si>
-    <t>10.0 (20)</t>
+    <t>9.9 (20)</t>
   </si>
   <si>
     <t>12.15 (20)</t>
@@ -283,7 +283,7 @@
     <t>43.012 (169)</t>
   </si>
   <si>
-    <t>11.219 (169)</t>
+    <t>11.231 (169)</t>
   </si>
   <si>
     <t>10.722 (169)</t>
@@ -337,7 +337,7 @@
     <t>44.349 (152)</t>
   </si>
   <si>
-    <t>10.743 (152)</t>
+    <t>10.724 (152)</t>
   </si>
   <si>
     <t>10.625 (152)</t>
@@ -391,7 +391,7 @@
     <t>37.312 (32)</t>
   </si>
   <si>
-    <t>10.688 (32)</t>
+    <t>10.625 (32)</t>
   </si>
   <si>
     <t>11.75 (32)</t>
@@ -493,7 +493,7 @@
     <t>42.219 (137)</t>
   </si>
   <si>
-    <t>11.029 (137)</t>
+    <t>11.044 (137)</t>
   </si>
   <si>
     <t>10.518 (137)</t>
@@ -547,7 +547,7 @@
     <t>44.899 (168)</t>
   </si>
   <si>
-    <t>11.083 (168)</t>
+    <t>11.065 (168)</t>
   </si>
   <si>
     <t>10.827 (168)</t>
@@ -601,7 +601,7 @@
     <t>39.609 (46)</t>
   </si>
   <si>
-    <t>10.391 (46)</t>
+    <t>10.37 (46)</t>
   </si>
   <si>
     <t>11.196 (46)</t>
@@ -655,7 +655,7 @@
     <t>39.333 (3)</t>
   </si>
   <si>
-    <t>9.333 (3)</t>
+    <t>9.0 (3)</t>
   </si>
   <si>
     <t>11.667 (3)</t>
@@ -706,7 +706,7 @@
     <t>41.962 (105)</t>
   </si>
   <si>
-    <t>11.238 (105)</t>
+    <t>11.257 (105)</t>
   </si>
   <si>
     <t>10.581 (105)</t>
@@ -760,7 +760,7 @@
     <t>43.723 (177)</t>
   </si>
   <si>
-    <t>10.881 (177)</t>
+    <t>10.87 (177)</t>
   </si>
   <si>
     <t>10.893 (177)</t>
@@ -814,7 +814,7 @@
     <t>43.879 (66)</t>
   </si>
   <si>
-    <t>10.879 (66)</t>
+    <t>10.848 (66)</t>
   </si>
   <si>
     <t>10.652 (66)</t>
@@ -865,7 +865,7 @@
     <t>37.667 (6)</t>
   </si>
   <si>
-    <t>9.167 (6)</t>
+    <t>9.0 (6)</t>
   </si>
   <si>
     <t>11.333 (6)</t>
@@ -919,7 +919,7 @@
     <t>40.136 (132)</t>
   </si>
   <si>
-    <t>11.318 (132)</t>
+    <t>11.333 (132)</t>
   </si>
   <si>
     <t>10.606 (132)</t>
@@ -973,7 +973,7 @@
     <t>43.607 (140)</t>
   </si>
   <si>
-    <t>11.45 (140)</t>
+    <t>11.436 (140)</t>
   </si>
   <si>
     <t>10.864 (140)</t>
@@ -1027,7 +1027,7 @@
     <t>43.935 (31)</t>
   </si>
   <si>
-    <t>10.871 (31)</t>
+    <t>10.839 (31)</t>
   </si>
   <si>
     <t>11.871 (31)</t>
@@ -1126,7 +1126,7 @@
     <t>39.371 (97)</t>
   </si>
   <si>
-    <t>11.598 (97)</t>
+    <t>11.608 (97)</t>
   </si>
   <si>
     <t>10.887 (97)</t>
@@ -1180,7 +1180,7 @@
     <t>43.935 (153)</t>
   </si>
   <si>
-    <t>11.007 (153)</t>
+    <t>11.013 (153)</t>
   </si>
   <si>
     <t>10.484 (153)</t>
@@ -1234,7 +1234,7 @@
     <t>41.9 (50)</t>
   </si>
   <si>
-    <t>12.12 (50)</t>
+    <t>12.06 (50)</t>
   </si>
   <si>
     <t>11.88 (50)</t>
@@ -1393,7 +1393,7 @@
     <t>44.533 (150)</t>
   </si>
   <si>
-    <t>11.093 (150)</t>
+    <t>11.1 (150)</t>
   </si>
   <si>
     <t>10.587 (150)</t>
@@ -1444,7 +1444,7 @@
     <t>42.608 (74)</t>
   </si>
   <si>
-    <t>11.784 (74)</t>
+    <t>11.757 (74)</t>
   </si>
   <si>
     <t>11.662 (74)</t>
@@ -1606,7 +1606,7 @@
     <t>42.708 (130)</t>
   </si>
   <si>
-    <t>11.023 (130)</t>
+    <t>11.038 (130)</t>
   </si>
   <si>
     <t>10.431 (130)</t>
@@ -1657,7 +1657,7 @@
     <t>44.095 (105)</t>
   </si>
   <si>
-    <t>11.495 (105)</t>
+    <t>11.467 (105)</t>
   </si>
   <si>
     <t>11.19 (105)</t>
@@ -1816,7 +1816,7 @@
     <t>37.756 (90)</t>
   </si>
   <si>
-    <t>11.833 (90)</t>
+    <t>11.844 (90)</t>
   </si>
   <si>
     <t>10.767 (90)</t>
@@ -1870,7 +1870,7 @@
     <t>42.48 (125)</t>
   </si>
   <si>
-    <t>11.592 (125)</t>
+    <t>11.576 (125)</t>
   </si>
   <si>
     <t>11.088 (125)</t>
@@ -1921,7 +1921,7 @@
     <t>42.353 (34)</t>
   </si>
   <si>
-    <t>11.676 (34)</t>
+    <t>11.647 (34)</t>
   </si>
   <si>
     <t>11.0 (34)</t>
@@ -2125,7 +2125,7 @@
     <t>39.912 (57)</t>
   </si>
   <si>
-    <t>12.684 (57)</t>
+    <t>12.649 (57)</t>
   </si>
   <si>
     <t>10.86 (57)</t>
@@ -2341,7 +2341,7 @@
     <t>42.157 (83)</t>
   </si>
   <si>
-    <t>11.699 (83)</t>
+    <t>11.663 (83)</t>
   </si>
   <si>
     <t>10.88 (83)</t>
@@ -2395,12 +2395,15 @@
     <t>38.81 (21)</t>
   </si>
   <si>
+    <t>11.048 (21)</t>
+  </si>
+  <si>
+    <t>11.524 (21)</t>
+  </si>
+  <si>
     <t>11.0 (21)</t>
   </si>
   <si>
-    <t>11.524 (21)</t>
-  </si>
-  <si>
     <t>13.048 (21)</t>
   </si>
   <si>
@@ -2500,7 +2503,7 @@
     <t>40.763 (93)</t>
   </si>
   <si>
-    <t>11.688 (93)</t>
+    <t>11.699 (93)</t>
   </si>
   <si>
     <t>10.925 (93)</t>
@@ -2554,7 +2557,7 @@
     <t>42.143 (91)</t>
   </si>
   <si>
-    <t>11.582 (91)</t>
+    <t>11.538 (91)</t>
   </si>
   <si>
     <t>11.187 (91)</t>
@@ -2608,7 +2611,7 @@
     <t>42.561 (41)</t>
   </si>
   <si>
-    <t>11.439 (41)</t>
+    <t>11.463 (41)</t>
   </si>
   <si>
     <t>10.951 (41)</t>
@@ -2659,7 +2662,7 @@
     <t>41.8 (45)</t>
   </si>
   <si>
-    <t>11.467 (45)</t>
+    <t>11.489 (45)</t>
   </si>
   <si>
     <t>10.844 (45)</t>
@@ -2713,7 +2716,7 @@
     <t>40.035 (113)</t>
   </si>
   <si>
-    <t>12.177 (113)</t>
+    <t>12.159 (113)</t>
   </si>
   <si>
     <t>10.965 (113)</t>
@@ -2767,7 +2770,7 @@
     <t>42.447 (38)</t>
   </si>
   <si>
-    <t>11.368 (38)</t>
+    <t>11.342 (38)</t>
   </si>
   <si>
     <t>11.158 (38)</t>
@@ -2920,7 +2923,7 @@
     <t>41.477 (86)</t>
   </si>
   <si>
-    <t>11.407 (86)</t>
+    <t>11.419 (86)</t>
   </si>
   <si>
     <t>11.012 (86)</t>
@@ -2974,7 +2977,7 @@
     <t>40.08 (75)</t>
   </si>
   <si>
-    <t>12.24 (75)</t>
+    <t>12.2 (75)</t>
   </si>
   <si>
     <t>10.827 (75)</t>
@@ -3130,7 +3133,7 @@
     <t>41.108 (74)</t>
   </si>
   <si>
-    <t>12.081 (74)</t>
+    <t>12.095 (74)</t>
   </si>
   <si>
     <t>11.122 (74)</t>
@@ -3178,7 +3181,7 @@
     <t>40.316 (79)</t>
   </si>
   <si>
-    <t>11.684 (79)</t>
+    <t>11.646 (79)</t>
   </si>
   <si>
     <t>10.937 (79)</t>
@@ -3361,7 +3364,7 @@
     <t>38.207 (58)</t>
   </si>
   <si>
-    <t>11.638 (58)</t>
+    <t>11.655 (58)</t>
   </si>
   <si>
     <t>11.155 (58)</t>
@@ -3415,7 +3418,7 @@
     <t>42.278 (79)</t>
   </si>
   <si>
-    <t>12.316 (79)</t>
+    <t>12.291 (79)</t>
   </si>
   <si>
     <t>10.962 (79)</t>
@@ -3469,7 +3472,7 @@
     <t>41.51 (49)</t>
   </si>
   <si>
-    <t>11.408 (49)</t>
+    <t>11.388 (49)</t>
   </si>
   <si>
     <t>11.0 (49)</t>
@@ -3974,10 +3977,10 @@
         <v>3.947</v>
       </c>
       <c r="H2">
-        <v>1.337</v>
+        <v>1.263</v>
       </c>
       <c r="I2">
-        <v>0.182</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4003,10 +4006,10 @@
         <v>-1.683</v>
       </c>
       <c r="H3">
-        <v>-0.662</v>
+        <v>-0.498</v>
       </c>
       <c r="I3">
-        <v>0.508</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4032,10 +4035,10 @@
         <v>-1.146</v>
       </c>
       <c r="H4">
-        <v>-0.303</v>
+        <v>-0.269</v>
       </c>
       <c r="I4">
-        <v>0.762</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4090,10 +4093,10 @@
         <v>2.953</v>
       </c>
       <c r="H6">
-        <v>0.717</v>
+        <v>0.724</v>
       </c>
       <c r="I6">
-        <v>0.474</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4119,10 +4122,10 @@
         <v>-1.078</v>
       </c>
       <c r="H7">
-        <v>-0.251</v>
+        <v>-0.309</v>
       </c>
       <c r="I7">
-        <v>0.802</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4145,13 +4148,13 @@
         <v>0.04</v>
       </c>
       <c r="G8">
-        <v>-2.365</v>
+        <v>-2.458</v>
       </c>
       <c r="H8">
-        <v>-1.877</v>
+        <v>-1.985</v>
       </c>
       <c r="I8">
-        <v>0.061</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4177,10 +4180,10 @@
         <v>0.622</v>
       </c>
       <c r="H9">
-        <v>0.521</v>
+        <v>0.383</v>
       </c>
       <c r="I9">
-        <v>0.603</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4206,10 +4209,10 @@
         <v>0.949</v>
       </c>
       <c r="H10">
-        <v>0.66</v>
+        <v>0.544</v>
       </c>
       <c r="I10">
-        <v>0.51</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4264,10 +4267,10 @@
         <v>-1.102</v>
       </c>
       <c r="H12">
-        <v>-0.717</v>
+        <v>-0.765</v>
       </c>
       <c r="I12">
-        <v>0.474</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4293,10 +4296,10 @@
         <v>-0.117</v>
       </c>
       <c r="H13">
-        <v>-0.075</v>
+        <v>-0.097</v>
       </c>
       <c r="I13">
-        <v>0.9409999999999999</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4322,10 +4325,10 @@
         <v>0.004</v>
       </c>
       <c r="H14">
-        <v>0.181</v>
+        <v>0.186</v>
       </c>
       <c r="I14">
-        <v>0.856</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4351,10 +4354,10 @@
         <v>-0.005</v>
       </c>
       <c r="H15">
-        <v>-0.241</v>
+        <v>-0.203</v>
       </c>
       <c r="I15">
-        <v>0.8090000000000001</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4380,10 +4383,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="H16">
-        <v>0.367</v>
+        <v>0.395</v>
       </c>
       <c r="I16">
-        <v>0.714</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4409,10 +4412,10 @@
         <v>-0.018</v>
       </c>
       <c r="H17">
-        <v>-0.746</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="I17">
-        <v>0.457</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4438,10 +4441,10 @@
         <v>-0.017</v>
       </c>
       <c r="H18">
-        <v>-0.722</v>
+        <v>-0.531</v>
       </c>
       <c r="I18">
-        <v>0.471</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4467,10 +4470,10 @@
         <v>0.021</v>
       </c>
       <c r="H19">
-        <v>0.843</v>
+        <v>1.081</v>
       </c>
       <c r="I19">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -4556,10 +4559,10 @@
         <v>-1.699</v>
       </c>
       <c r="I2">
-        <v>-0.487</v>
+        <v>-0.502</v>
       </c>
       <c r="J2">
-        <v>0.627</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4588,10 +4591,10 @@
         <v>-0.498</v>
       </c>
       <c r="I3">
-        <v>-0.176</v>
+        <v>-0.14</v>
       </c>
       <c r="J3">
-        <v>0.86</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4620,10 +4623,10 @@
         <v>2.562</v>
       </c>
       <c r="I4">
-        <v>0.572</v>
+        <v>0.512</v>
       </c>
       <c r="J4">
-        <v>0.5679999999999999</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4652,10 +4655,10 @@
         <v>1.33</v>
       </c>
       <c r="I5">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="J5">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4684,10 +4687,10 @@
         <v>6.878</v>
       </c>
       <c r="I6">
-        <v>1.344</v>
+        <v>1.858</v>
       </c>
       <c r="J6">
-        <v>0.181</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4716,10 +4719,10 @@
         <v>6.303</v>
       </c>
       <c r="I7">
-        <v>1.209</v>
+        <v>1.72</v>
       </c>
       <c r="J7">
-        <v>0.228</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4745,13 +4748,13 @@
         <v>0.04</v>
       </c>
       <c r="H8">
-        <v>-0.413</v>
+        <v>-0.456</v>
       </c>
       <c r="I8">
-        <v>-0.262</v>
+        <v>-0.307</v>
       </c>
       <c r="J8">
-        <v>0.794</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4780,10 +4783,10 @@
         <v>0.531</v>
       </c>
       <c r="I9">
-        <v>0.392</v>
+        <v>0.305</v>
       </c>
       <c r="J9">
-        <v>0.696</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4812,10 +4815,10 @@
         <v>-1.007</v>
       </c>
       <c r="I10">
-        <v>-0.5669999999999999</v>
+        <v>-0.501</v>
       </c>
       <c r="J10">
-        <v>0.571</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4876,10 +4879,10 @@
         <v>-1.549</v>
       </c>
       <c r="I12">
-        <v>-0.796</v>
+        <v>-1.039</v>
       </c>
       <c r="J12">
-        <v>0.427</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4908,10 +4911,10 @@
         <v>-2.577</v>
       </c>
       <c r="I13">
-        <v>-1.339</v>
+        <v>-1.677</v>
       </c>
       <c r="J13">
-        <v>0.182</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4940,10 +4943,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.286</v>
+        <v>-0.273</v>
       </c>
       <c r="J14">
-        <v>0.775</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4972,10 +4975,10 @@
         <v>0.004</v>
       </c>
       <c r="I15">
-        <v>0.13</v>
+        <v>0.112</v>
       </c>
       <c r="J15">
-        <v>0.896</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5004,10 +5007,10 @@
         <v>0.019</v>
       </c>
       <c r="I16">
-        <v>0.615</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J16">
-        <v>0.539</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5036,10 +5039,10 @@
         <v>-0.036</v>
       </c>
       <c r="I17">
-        <v>-1.214</v>
+        <v>-0.9320000000000001</v>
       </c>
       <c r="J17">
-        <v>0.226</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5068,10 +5071,10 @@
         <v>-0.002</v>
       </c>
       <c r="I18">
-        <v>-0.052</v>
+        <v>-0.047</v>
       </c>
       <c r="J18">
-        <v>0.959</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5100,10 +5103,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>0.293</v>
+        <v>0.231</v>
       </c>
       <c r="J19">
-        <v>0.77</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5196,10 +5199,10 @@
         <v>-2.406</v>
       </c>
       <c r="J2">
-        <v>-0.6</v>
+        <v>-0.579</v>
       </c>
       <c r="K2">
-        <v>0.549</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5231,10 +5234,10 @@
         <v>-2.397</v>
       </c>
       <c r="J3">
-        <v>-0.739</v>
+        <v>-0.6860000000000001</v>
       </c>
       <c r="K3">
-        <v>0.461</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5266,10 +5269,10 @@
         <v>-0.338</v>
       </c>
       <c r="J4">
-        <v>-0.066</v>
+        <v>-0.058</v>
       </c>
       <c r="K4">
-        <v>0.948</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5301,10 +5304,10 @@
         <v>0.169</v>
       </c>
       <c r="J5">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="K5">
-        <v>0.976</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5336,10 +5339,10 @@
         <v>5.718</v>
       </c>
       <c r="J6">
-        <v>0.97</v>
+        <v>1.048</v>
       </c>
       <c r="K6">
-        <v>0.333</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5371,10 +5374,10 @@
         <v>8.24</v>
       </c>
       <c r="J7">
-        <v>1.377</v>
+        <v>1.49</v>
       </c>
       <c r="K7">
-        <v>0.17</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5403,13 +5406,13 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>-0.589</v>
+        <v>-0.58</v>
       </c>
       <c r="J8">
-        <v>-0.325</v>
+        <v>-0.317</v>
       </c>
       <c r="K8">
-        <v>0.745</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5441,10 +5444,10 @@
         <v>1.494</v>
       </c>
       <c r="J9">
-        <v>0.96</v>
+        <v>0.796</v>
       </c>
       <c r="K9">
-        <v>0.338</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5461,7 +5464,7 @@
         <v>772</v>
       </c>
       <c r="E10" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F10" t="s">
         <v>139</v>
@@ -5476,10 +5479,10 @@
         <v>0.92</v>
       </c>
       <c r="J10">
-        <v>0.451</v>
+        <v>0.377</v>
       </c>
       <c r="K10">
-        <v>0.653</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5496,7 +5499,7 @@
         <v>773</v>
       </c>
       <c r="E11" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F11" t="s">
         <v>139</v>
@@ -5511,10 +5514,10 @@
         <v>0.488</v>
       </c>
       <c r="J11">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="K11">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5531,7 +5534,7 @@
         <v>774</v>
       </c>
       <c r="E12" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F12" t="s">
         <v>140</v>
@@ -5546,10 +5549,10 @@
         <v>-0.669</v>
       </c>
       <c r="J12">
-        <v>-0.299</v>
+        <v>-0.308</v>
       </c>
       <c r="K12">
-        <v>0.766</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5566,7 +5569,7 @@
         <v>775</v>
       </c>
       <c r="E13" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F13" t="s">
         <v>141</v>
@@ -5581,10 +5584,10 @@
         <v>-3.671</v>
       </c>
       <c r="J13">
-        <v>-1.665</v>
+        <v>-1.704</v>
       </c>
       <c r="K13">
-        <v>0.098</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5601,7 +5604,7 @@
         <v>776</v>
       </c>
       <c r="E14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F14" t="s">
         <v>142</v>
@@ -5616,10 +5619,10 @@
         <v>0.008</v>
       </c>
       <c r="J14">
-        <v>0.264</v>
+        <v>0.244</v>
       </c>
       <c r="K14">
-        <v>0.792</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5636,7 +5639,7 @@
         <v>777</v>
       </c>
       <c r="E15" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F15" t="s">
         <v>143</v>
@@ -5651,10 +5654,10 @@
         <v>0.01</v>
       </c>
       <c r="J15">
-        <v>0.305</v>
+        <v>0.269</v>
       </c>
       <c r="K15">
-        <v>0.761</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5671,7 +5674,7 @@
         <v>778</v>
       </c>
       <c r="E16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F16" t="s">
         <v>144</v>
@@ -5686,10 +5689,10 @@
         <v>0.022</v>
       </c>
       <c r="J16">
-        <v>0.611</v>
+        <v>0.577</v>
       </c>
       <c r="K16">
-        <v>0.542</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5706,7 +5709,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F17" t="s">
         <v>145</v>
@@ -5721,10 +5724,10 @@
         <v>-0.042</v>
       </c>
       <c r="J17">
-        <v>-1.208</v>
+        <v>-0.876</v>
       </c>
       <c r="K17">
-        <v>0.229</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5741,7 +5744,7 @@
         <v>780</v>
       </c>
       <c r="E18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F18" t="s">
         <v>146</v>
@@ -5756,10 +5759,10 @@
         <v>-0.02</v>
       </c>
       <c r="J18">
-        <v>-0.576</v>
+        <v>-0.523</v>
       </c>
       <c r="K18">
-        <v>0.5659999999999999</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5776,7 +5779,7 @@
         <v>781</v>
       </c>
       <c r="E19" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F19" t="s">
         <v>147</v>
@@ -5791,10 +5794,10 @@
         <v>0.013</v>
       </c>
       <c r="J19">
-        <v>0.365</v>
+        <v>0.299</v>
       </c>
       <c r="K19">
-        <v>0.716</v>
+        <v>0.765</v>
       </c>
     </row>
   </sheetData>
@@ -5863,16 +5866,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F2" t="s">
         <v>572</v>
@@ -5887,10 +5890,10 @@
         <v>0.044</v>
       </c>
       <c r="J2">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K2">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5898,16 +5901,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F3" t="s">
         <v>573</v>
@@ -5922,10 +5925,10 @@
         <v>-1.827</v>
       </c>
       <c r="J3">
-        <v>-0.484</v>
+        <v>-0.412</v>
       </c>
       <c r="K3">
-        <v>0.629</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5933,16 +5936,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F4" t="s">
         <v>574</v>
@@ -5957,10 +5960,10 @@
         <v>0.713</v>
       </c>
       <c r="J4">
-        <v>0.119</v>
+        <v>0.099</v>
       </c>
       <c r="K4">
-        <v>0.905</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5968,16 +5971,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F5" t="s">
         <v>575</v>
@@ -5992,10 +5995,10 @@
         <v>-0.293</v>
       </c>
       <c r="J5">
-        <v>-0.044</v>
+        <v>-0.042</v>
       </c>
       <c r="K5">
-        <v>0.965</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6003,16 +6006,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C6" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D6" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E6" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F6" t="s">
         <v>576</v>
@@ -6027,10 +6030,10 @@
         <v>6.718</v>
       </c>
       <c r="J6">
-        <v>0.98</v>
+        <v>0.907</v>
       </c>
       <c r="K6">
-        <v>0.328</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6038,16 +6041,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F7" t="s">
         <v>577</v>
@@ -6062,10 +6065,10 @@
         <v>11.535</v>
       </c>
       <c r="J7">
-        <v>1.662</v>
+        <v>1.774</v>
       </c>
       <c r="K7">
-        <v>0.098</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6073,16 +6076,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D8" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F8" t="s">
         <v>578</v>
@@ -6094,13 +6097,13 @@
         <v>0.023</v>
       </c>
       <c r="I8">
-        <v>-0.75</v>
+        <v>-0.753</v>
       </c>
       <c r="J8">
-        <v>-0.356</v>
+        <v>-0.346</v>
       </c>
       <c r="K8">
-        <v>0.722</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6108,16 +6111,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E9" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F9" t="s">
         <v>578</v>
@@ -6132,10 +6135,10 @@
         <v>1.406</v>
       </c>
       <c r="J9">
-        <v>0.777</v>
+        <v>0.626</v>
       </c>
       <c r="K9">
-        <v>0.438</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6143,16 +6146,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E10" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F10" t="s">
         <v>579</v>
@@ -6167,10 +6170,10 @@
         <v>0.546</v>
       </c>
       <c r="J10">
-        <v>0.23</v>
+        <v>0.173</v>
       </c>
       <c r="K10">
-        <v>0.8179999999999999</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6178,16 +6181,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C11" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D11" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E11" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F11" t="s">
         <v>580</v>
@@ -6202,10 +6205,10 @@
         <v>0.297</v>
       </c>
       <c r="J11">
-        <v>0.119</v>
+        <v>0.113</v>
       </c>
       <c r="K11">
-        <v>0.905</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6213,16 +6216,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C12" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D12" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E12" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F12" t="s">
         <v>581</v>
@@ -6237,10 +6240,10 @@
         <v>-0.787</v>
       </c>
       <c r="J12">
-        <v>-0.302</v>
+        <v>-0.271</v>
       </c>
       <c r="K12">
-        <v>0.763</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6248,16 +6251,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C13" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E13" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F13" t="s">
         <v>582</v>
@@ -6272,10 +6275,10 @@
         <v>-5.533</v>
       </c>
       <c r="J13">
-        <v>-2.169</v>
+        <v>-2.332</v>
       </c>
       <c r="K13">
-        <v>0.031</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6283,16 +6286,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D14" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F14" t="s">
         <v>583</v>
@@ -6307,10 +6310,10 @@
         <v>0.003</v>
       </c>
       <c r="J14">
-        <v>0.096</v>
+        <v>0.107</v>
       </c>
       <c r="K14">
-        <v>0.923</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6318,16 +6321,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D15" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E15" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F15" t="s">
         <v>584</v>
@@ -6342,10 +6345,10 @@
         <v>-0.015</v>
       </c>
       <c r="J15">
-        <v>-0.412</v>
+        <v>-0.384</v>
       </c>
       <c r="K15">
-        <v>0.681</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6353,16 +6356,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F16" t="s">
         <v>585</v>
@@ -6377,10 +6380,10 @@
         <v>-0.003</v>
       </c>
       <c r="J16">
-        <v>-0.061</v>
+        <v>-0.063</v>
       </c>
       <c r="K16">
-        <v>0.951</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6388,16 +6391,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E17" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F17" t="s">
         <v>586</v>
@@ -6412,10 +6415,10 @@
         <v>-0.06</v>
       </c>
       <c r="J17">
-        <v>-1.486</v>
+        <v>-1.087</v>
       </c>
       <c r="K17">
-        <v>0.139</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6423,16 +6426,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C18" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D18" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E18" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F18" t="s">
         <v>587</v>
@@ -6447,10 +6450,10 @@
         <v>-0.026</v>
       </c>
       <c r="J18">
-        <v>-0.634</v>
+        <v>-0.571</v>
       </c>
       <c r="K18">
-        <v>0.527</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6458,16 +6461,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C19" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E19" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F19" t="s">
         <v>588</v>
@@ -6482,10 +6485,10 @@
         <v>0.028</v>
       </c>
       <c r="J19">
-        <v>0.703</v>
+        <v>0.599</v>
       </c>
       <c r="K19">
-        <v>0.483</v>
+        <v>0.549</v>
       </c>
     </row>
   </sheetData>
@@ -6550,16 +6553,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F2">
         <v>204</v>
@@ -6571,10 +6574,10 @@
         <v>-1.127</v>
       </c>
       <c r="I2">
-        <v>-0.382</v>
+        <v>-0.436</v>
       </c>
       <c r="J2">
-        <v>0.703</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6582,16 +6585,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F3">
         <v>204</v>
@@ -6603,10 +6606,10 @@
         <v>0.73</v>
       </c>
       <c r="I3">
-        <v>0.322</v>
+        <v>0.234</v>
       </c>
       <c r="J3">
-        <v>0.748</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6614,16 +6617,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F4">
         <v>204</v>
@@ -6635,10 +6638,10 @@
         <v>-0.382</v>
       </c>
       <c r="I4">
-        <v>-0.094</v>
+        <v>-0.076</v>
       </c>
       <c r="J4">
-        <v>0.925</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6646,16 +6649,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F5">
         <v>204</v>
@@ -6667,7 +6670,7 @@
         <v>-4.991</v>
       </c>
       <c r="I5">
-        <v>-1.12</v>
+        <v>-1.115</v>
       </c>
       <c r="J5">
         <v>0.265</v>
@@ -6678,16 +6681,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F6">
         <v>204</v>
@@ -6699,10 +6702,10 @@
         <v>5.589</v>
       </c>
       <c r="I6">
-        <v>1.237</v>
+        <v>1.453</v>
       </c>
       <c r="J6">
-        <v>0.218</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6710,16 +6713,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C7" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F7">
         <v>204</v>
@@ -6731,10 +6734,10 @@
         <v>6.268</v>
       </c>
       <c r="I7">
-        <v>1.27</v>
+        <v>1.459</v>
       </c>
       <c r="J7">
-        <v>0.206</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6742,16 +6745,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D8" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F8">
         <v>204</v>
@@ -6760,13 +6763,13 @@
         <v>0.063</v>
       </c>
       <c r="H8">
-        <v>-0.674</v>
+        <v>-0.697</v>
       </c>
       <c r="I8">
-        <v>-0.47</v>
+        <v>-0.512</v>
       </c>
       <c r="J8">
-        <v>0.639</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6774,16 +6777,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D9" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F9">
         <v>204</v>
@@ -6795,10 +6798,10 @@
         <v>0.356</v>
       </c>
       <c r="I9">
-        <v>0.314</v>
+        <v>0.204</v>
       </c>
       <c r="J9">
-        <v>0.754</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6806,16 +6809,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F10">
         <v>204</v>
@@ -6827,10 +6830,10 @@
         <v>0.211</v>
       </c>
       <c r="I10">
-        <v>0.129</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>0.898</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6838,13 +6841,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C11" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E11" t="s">
         <v>494</v>
@@ -6859,10 +6862,10 @@
         <v>1.684</v>
       </c>
       <c r="I11">
-        <v>0.989</v>
+        <v>0.852</v>
       </c>
       <c r="J11">
-        <v>0.324</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6870,16 +6873,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C12" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D12" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E12" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F12">
         <v>204</v>
@@ -6891,10 +6894,10 @@
         <v>-1.2</v>
       </c>
       <c r="I12">
-        <v>-0.675</v>
+        <v>-0.707</v>
       </c>
       <c r="J12">
-        <v>0.501</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6902,16 +6905,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D13" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F13">
         <v>204</v>
@@ -6923,10 +6926,10 @@
         <v>-2.236</v>
       </c>
       <c r="I13">
-        <v>-1.23</v>
+        <v>-1.359</v>
       </c>
       <c r="J13">
-        <v>0.221</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6934,13 +6937,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C14" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D14" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E14" t="s">
         <v>496</v>
@@ -6955,10 +6958,10 @@
         <v>0.018</v>
       </c>
       <c r="I14">
-        <v>0.709</v>
+        <v>0.627</v>
       </c>
       <c r="J14">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6966,16 +6969,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C15" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D15" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E15" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F15">
         <v>204</v>
@@ -6987,10 +6990,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.365</v>
+        <v>0.292</v>
       </c>
       <c r="J15">
-        <v>0.715</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6998,16 +7001,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C16" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D16" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F16">
         <v>204</v>
@@ -7019,10 +7022,10 @@
         <v>0.034</v>
       </c>
       <c r="I16">
-        <v>1.16</v>
+        <v>0.858</v>
       </c>
       <c r="J16">
-        <v>0.248</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7030,13 +7033,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C17" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D17" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E17" t="s">
         <v>497</v>
@@ -7051,7 +7054,7 @@
         <v>0.002</v>
       </c>
       <c r="I17">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="J17">
         <v>0.951</v>
@@ -7062,16 +7065,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C18" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D18" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E18" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F18">
         <v>204</v>
@@ -7083,7 +7086,7 @@
         <v>0.013</v>
       </c>
       <c r="I18">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
       <c r="J18">
         <v>0.615</v>
@@ -7094,16 +7097,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C19" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D19" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E19" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F19">
         <v>204</v>
@@ -7115,10 +7118,10 @@
         <v>-0.025</v>
       </c>
       <c r="I19">
-        <v>-0.904</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="J19">
-        <v>0.368</v>
+        <v>0.495</v>
       </c>
     </row>
   </sheetData>
@@ -7183,16 +7186,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F2">
         <v>204</v>
@@ -7204,10 +7207,10 @@
         <v>-2.033</v>
       </c>
       <c r="I2">
-        <v>-0.5659999999999999</v>
+        <v>-0.641</v>
       </c>
       <c r="J2">
-        <v>0.572</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7215,16 +7218,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F3">
         <v>204</v>
@@ -7236,10 +7239,10 @@
         <v>3.355</v>
       </c>
       <c r="I3">
-        <v>1.223</v>
+        <v>1.125</v>
       </c>
       <c r="J3">
-        <v>0.223</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7247,16 +7250,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F4">
         <v>204</v>
@@ -7268,10 +7271,10 @@
         <v>-2.592</v>
       </c>
       <c r="I4">
-        <v>-0.525</v>
+        <v>-0.482</v>
       </c>
       <c r="J4">
-        <v>0.601</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7279,16 +7282,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E5" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F5">
         <v>204</v>
@@ -7300,10 +7303,10 @@
         <v>-3.314</v>
       </c>
       <c r="I5">
-        <v>-0.609</v>
+        <v>-0.757</v>
       </c>
       <c r="J5">
-        <v>0.543</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7311,16 +7314,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E6" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F6">
         <v>204</v>
@@ -7332,10 +7335,10 @@
         <v>4.632</v>
       </c>
       <c r="I6">
-        <v>0.84</v>
+        <v>0.992</v>
       </c>
       <c r="J6">
-        <v>0.402</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7343,16 +7346,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F7">
         <v>204</v>
@@ -7364,10 +7367,10 @@
         <v>1.473</v>
       </c>
       <c r="I7">
-        <v>0.244</v>
+        <v>0.276</v>
       </c>
       <c r="J7">
-        <v>0.8080000000000001</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7375,16 +7378,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C8" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F8">
         <v>204</v>
@@ -7393,13 +7396,13 @@
         <v>0.041</v>
       </c>
       <c r="H8">
-        <v>-0.138</v>
+        <v>-0.189</v>
       </c>
       <c r="I8">
-        <v>-0.079</v>
+        <v>-0.107</v>
       </c>
       <c r="J8">
-        <v>0.9370000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7407,16 +7410,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C9" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D9" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E9" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F9">
         <v>204</v>
@@ -7428,10 +7431,10 @@
         <v>-1.191</v>
       </c>
       <c r="I9">
-        <v>-0.866</v>
+        <v>-0.71</v>
       </c>
       <c r="J9">
-        <v>0.388</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7439,16 +7442,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C10" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E10" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F10">
         <v>204</v>
@@ -7460,10 +7463,10 @@
         <v>1.115</v>
       </c>
       <c r="I10">
-        <v>0.5590000000000001</v>
+        <v>0.461</v>
       </c>
       <c r="J10">
-        <v>0.577</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7471,16 +7474,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C11" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D11" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E11" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F11">
         <v>204</v>
@@ -7492,10 +7495,10 @@
         <v>0.977</v>
       </c>
       <c r="I11">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="J11">
-        <v>0.639</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7503,16 +7506,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E12" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F12">
         <v>204</v>
@@ -7524,10 +7527,10 @@
         <v>-0.884</v>
       </c>
       <c r="I12">
-        <v>-0.408</v>
+        <v>-0.438</v>
       </c>
       <c r="J12">
-        <v>0.6840000000000001</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7535,16 +7538,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E13" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F13">
         <v>204</v>
@@ -7556,10 +7559,10 @@
         <v>-0.198</v>
       </c>
       <c r="I13">
-        <v>-0.089</v>
+        <v>-0.098</v>
       </c>
       <c r="J13">
-        <v>0.929</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7567,16 +7570,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C14" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E14" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F14">
         <v>204</v>
@@ -7588,10 +7591,10 @@
         <v>0.041</v>
       </c>
       <c r="I14">
-        <v>1.32</v>
+        <v>0.95</v>
       </c>
       <c r="J14">
-        <v>0.189</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7599,16 +7602,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C15" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D15" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E15" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F15">
         <v>204</v>
@@ -7620,10 +7623,10 @@
         <v>0.041</v>
       </c>
       <c r="I15">
-        <v>1.266</v>
+        <v>0.904</v>
       </c>
       <c r="J15">
-        <v>0.208</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7631,16 +7634,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C16" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D16" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E16" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F16">
         <v>204</v>
@@ -7652,10 +7655,10 @@
         <v>0.053</v>
       </c>
       <c r="I16">
-        <v>1.477</v>
+        <v>1.194</v>
       </c>
       <c r="J16">
-        <v>0.142</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7663,13 +7666,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C17" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E17" t="s">
         <v>568</v>
@@ -7684,10 +7687,10 @@
         <v>0.006</v>
       </c>
       <c r="I17">
-        <v>0.175</v>
+        <v>0.186</v>
       </c>
       <c r="J17">
-        <v>0.861</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7695,16 +7698,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C18" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D18" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E18" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F18">
         <v>204</v>
@@ -7716,10 +7719,10 @@
         <v>0.017</v>
       </c>
       <c r="I18">
-        <v>0.535</v>
+        <v>0.49</v>
       </c>
       <c r="J18">
-        <v>0.594</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7727,16 +7730,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C19" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D19" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E19" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F19">
         <v>204</v>
@@ -7748,10 +7751,10 @@
         <v>-0.011</v>
       </c>
       <c r="I19">
-        <v>-0.324</v>
+        <v>-0.247</v>
       </c>
       <c r="J19">
-        <v>0.746</v>
+        <v>0.805</v>
       </c>
     </row>
   </sheetData>
@@ -7820,19 +7823,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G2">
         <v>204</v>
@@ -7844,10 +7847,10 @@
         <v>-1.704</v>
       </c>
       <c r="J2">
-        <v>-0.412</v>
+        <v>-0.375</v>
       </c>
       <c r="K2">
-        <v>0.681</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7855,19 +7858,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G3">
         <v>204</v>
@@ -7879,10 +7882,10 @@
         <v>2.612</v>
       </c>
       <c r="J3">
-        <v>0.825</v>
+        <v>0.757</v>
       </c>
       <c r="K3">
-        <v>0.411</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7890,19 +7893,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G4">
         <v>204</v>
@@ -7914,10 +7917,10 @@
         <v>-10.37</v>
       </c>
       <c r="J4">
-        <v>-1.844</v>
+        <v>-1.85</v>
       </c>
       <c r="K4">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7925,19 +7928,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C5" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F5" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G5">
         <v>204</v>
@@ -7949,10 +7952,10 @@
         <v>-8.292</v>
       </c>
       <c r="J5">
-        <v>-1.331</v>
+        <v>-1.906</v>
       </c>
       <c r="K5">
-        <v>0.185</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7960,16 +7963,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D6" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E6" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F6" t="s">
         <v>575</v>
@@ -7984,7 +7987,7 @@
         <v>3.115</v>
       </c>
       <c r="J6">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="K6">
         <v>0.625</v>
@@ -7995,16 +7998,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C7" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D7" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E7" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F7" t="s">
         <v>577</v>
@@ -8019,10 +8022,10 @@
         <v>3.724</v>
       </c>
       <c r="J7">
-        <v>0.536</v>
+        <v>0.498</v>
       </c>
       <c r="K7">
-        <v>0.593</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8030,19 +8033,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C8" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E8" t="s">
         <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G8">
         <v>204</v>
@@ -8051,13 +8054,13 @@
         <v>0.031</v>
       </c>
       <c r="I8">
-        <v>-0.723</v>
+        <v>-0.757</v>
       </c>
       <c r="J8">
-        <v>-0.36</v>
+        <v>-0.324</v>
       </c>
       <c r="K8">
-        <v>0.719</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8065,16 +8068,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C9" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D9" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E9" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F9" t="s">
         <v>580</v>
@@ -8089,10 +8092,10 @@
         <v>-0.611</v>
       </c>
       <c r="J9">
-        <v>-0.385</v>
+        <v>-0.312</v>
       </c>
       <c r="K9">
-        <v>0.701</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8100,19 +8103,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C10" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E10" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F10" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G10">
         <v>204</v>
@@ -8124,10 +8127,10 @@
         <v>4.513</v>
       </c>
       <c r="J10">
-        <v>1.993</v>
+        <v>1.738</v>
       </c>
       <c r="K10">
-        <v>0.048</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8135,19 +8138,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C11" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D11" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E11" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F11" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G11">
         <v>204</v>
@@ -8159,10 +8162,10 @@
         <v>2.821</v>
       </c>
       <c r="J11">
-        <v>1.185</v>
+        <v>1.426</v>
       </c>
       <c r="K11">
-        <v>0.238</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8170,16 +8173,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C12" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D12" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E12" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F12" t="s">
         <v>579</v>
@@ -8194,10 +8197,10 @@
         <v>0.455</v>
       </c>
       <c r="J12">
-        <v>0.183</v>
+        <v>0.184</v>
       </c>
       <c r="K12">
-        <v>0.855</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8205,16 +8208,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C13" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D13" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E13" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F13" t="s">
         <v>582</v>
@@ -8229,10 +8232,10 @@
         <v>-1.559</v>
       </c>
       <c r="J13">
-        <v>-0.61</v>
+        <v>-0.611</v>
       </c>
       <c r="K13">
-        <v>0.543</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8240,16 +8243,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C14" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D14" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E14" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F14" t="s">
         <v>587</v>
@@ -8264,10 +8267,10 @@
         <v>0.059</v>
       </c>
       <c r="J14">
-        <v>1.662</v>
+        <v>1.317</v>
       </c>
       <c r="K14">
-        <v>0.099</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8275,19 +8278,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C15" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D15" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E15" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F15" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G15">
         <v>204</v>
@@ -8299,10 +8302,10 @@
         <v>0.045</v>
       </c>
       <c r="J15">
-        <v>1.222</v>
+        <v>1.014</v>
       </c>
       <c r="K15">
-        <v>0.224</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8310,19 +8313,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C16" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D16" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E16" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F16" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G16">
         <v>204</v>
@@ -8334,10 +8337,10 @@
         <v>0.054</v>
       </c>
       <c r="J16">
-        <v>1.309</v>
+        <v>1.048</v>
       </c>
       <c r="K16">
-        <v>0.193</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8345,19 +8348,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C17" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D17" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E17" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F17" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G17">
         <v>204</v>
@@ -8369,10 +8372,10 @@
         <v>-0.001</v>
       </c>
       <c r="J17">
-        <v>-0.028</v>
+        <v>-0.024</v>
       </c>
       <c r="K17">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8380,19 +8383,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C18" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D18" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E18" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F18" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G18">
         <v>204</v>
@@ -8404,10 +8407,10 @@
         <v>-0.007</v>
       </c>
       <c r="J18">
-        <v>-0.177</v>
+        <v>-0.151</v>
       </c>
       <c r="K18">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8415,16 +8418,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C19" t="s">
         <v>482</v>
       </c>
       <c r="D19" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E19" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F19" t="s">
         <v>588</v>
@@ -8439,10 +8442,10 @@
         <v>-0.007</v>
       </c>
       <c r="J19">
-        <v>-0.186</v>
+        <v>-0.144</v>
       </c>
       <c r="K19">
-        <v>0.853</v>
+        <v>0.885</v>
       </c>
     </row>
   </sheetData>
@@ -8511,16 +8514,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F2" t="s">
         <v>485</v>
@@ -8535,10 +8538,10 @@
         <v>-1.699</v>
       </c>
       <c r="J2">
-        <v>-0.351</v>
+        <v>-0.279</v>
       </c>
       <c r="K2">
-        <v>0.726</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8546,19 +8549,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G3">
         <v>204</v>
@@ -8570,10 +8573,10 @@
         <v>2.403</v>
       </c>
       <c r="J3">
-        <v>0.649</v>
+        <v>0.583</v>
       </c>
       <c r="K3">
-        <v>0.518</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8581,16 +8584,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F4" t="s">
         <v>487</v>
@@ -8605,10 +8608,10 @@
         <v>-6.844</v>
       </c>
       <c r="J4">
-        <v>-1.033</v>
+        <v>-0.883</v>
       </c>
       <c r="K4">
-        <v>0.304</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8616,19 +8619,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E5" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G5">
         <v>204</v>
@@ -8640,10 +8643,10 @@
         <v>-9.055999999999999</v>
       </c>
       <c r="J5">
-        <v>-1.242</v>
+        <v>-1.717</v>
       </c>
       <c r="K5">
-        <v>0.216</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8651,19 +8654,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C6" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D6" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E6" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F6" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G6">
         <v>204</v>
@@ -8675,10 +8678,10 @@
         <v>2.666</v>
       </c>
       <c r="J6">
-        <v>0.359</v>
+        <v>0.33</v>
       </c>
       <c r="K6">
-        <v>0.72</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8686,19 +8689,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C7" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D7" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E7" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F7" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G7">
         <v>204</v>
@@ -8710,10 +8713,10 @@
         <v>4.481</v>
       </c>
       <c r="J7">
-        <v>0.552</v>
+        <v>0.495</v>
       </c>
       <c r="K7">
-        <v>0.582</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8721,19 +8724,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D8" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E8" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F8" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="G8">
         <v>204</v>
@@ -8742,13 +8745,13 @@
         <v>0.024</v>
       </c>
       <c r="I8">
-        <v>-0.22</v>
+        <v>-0.284</v>
       </c>
       <c r="J8">
-        <v>-0.094</v>
+        <v>-0.099</v>
       </c>
       <c r="K8">
-        <v>0.926</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8756,19 +8759,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C9" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D9" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E9" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F9" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G9">
         <v>204</v>
@@ -8780,10 +8783,10 @@
         <v>-0.189</v>
       </c>
       <c r="J9">
-        <v>-0.102</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="K9">
-        <v>0.919</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8791,19 +8794,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C10" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D10" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E10" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F10" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G10">
         <v>204</v>
@@ -8815,10 +8818,10 @@
         <v>3.245</v>
       </c>
       <c r="J10">
-        <v>1.215</v>
+        <v>0.909</v>
       </c>
       <c r="K10">
-        <v>0.226</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8826,19 +8829,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C11" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D11" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E11" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F11" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G11">
         <v>204</v>
@@ -8850,10 +8853,10 @@
         <v>3.008</v>
       </c>
       <c r="J11">
-        <v>1.08</v>
+        <v>1.207</v>
       </c>
       <c r="K11">
-        <v>0.282</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8861,19 +8864,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C12" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D12" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E12" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F12" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G12">
         <v>204</v>
@@ -8885,10 +8888,10 @@
         <v>0.406</v>
       </c>
       <c r="J12">
-        <v>0.139</v>
+        <v>0.124</v>
       </c>
       <c r="K12">
-        <v>0.889</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8896,19 +8899,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C13" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E13" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G13">
         <v>204</v>
@@ -8920,10 +8923,10 @@
         <v>-2.202</v>
       </c>
       <c r="J13">
-        <v>-0.737</v>
+        <v>-0.764</v>
       </c>
       <c r="K13">
-        <v>0.462</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8931,19 +8934,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C14" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D14" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G14">
         <v>204</v>
@@ -8955,10 +8958,10 @@
         <v>0.074</v>
       </c>
       <c r="J14">
-        <v>1.769</v>
+        <v>1.546</v>
       </c>
       <c r="K14">
-        <v>0.079</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8966,19 +8969,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C15" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D15" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E15" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F15" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G15">
         <v>204</v>
@@ -8990,10 +8993,10 @@
         <v>0.043</v>
       </c>
       <c r="J15">
-        <v>0.995</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K15">
-        <v>0.322</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9001,19 +9004,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C16" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D16" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E16" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F16" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G16">
         <v>204</v>
@@ -9025,10 +9028,10 @@
         <v>0.032</v>
       </c>
       <c r="J16">
-        <v>0.664</v>
+        <v>0.6</v>
       </c>
       <c r="K16">
-        <v>0.508</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9036,19 +9039,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C17" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D17" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E17" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="F17" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="G17">
         <v>204</v>
@@ -9060,10 +9063,10 @@
         <v>-0.001</v>
       </c>
       <c r="J17">
-        <v>-0.024</v>
+        <v>-0.021</v>
       </c>
       <c r="K17">
-        <v>0.981</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9071,19 +9074,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C18" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D18" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E18" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F18" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G18">
         <v>204</v>
@@ -9095,10 +9098,10 @@
         <v>-0.015</v>
       </c>
       <c r="J18">
-        <v>-0.348</v>
+        <v>-0.334</v>
       </c>
       <c r="K18">
-        <v>0.728</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9106,19 +9109,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C19" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D19" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E19" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F19" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G19">
         <v>204</v>
@@ -9130,10 +9133,10 @@
         <v>-0.002</v>
       </c>
       <c r="J19">
-        <v>-0.04</v>
+        <v>-0.035</v>
       </c>
       <c r="K19">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
     </row>
   </sheetData>
@@ -9219,10 +9222,10 @@
         <v>3.318</v>
       </c>
       <c r="I2">
-        <v>0.9399999999999999</v>
+        <v>0.866</v>
       </c>
       <c r="J2">
-        <v>0.348</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9251,10 +9254,10 @@
         <v>-1.319</v>
       </c>
       <c r="I3">
-        <v>-0.434</v>
+        <v>-0.371</v>
       </c>
       <c r="J3">
-        <v>0.664</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9283,10 +9286,10 @@
         <v>0.377</v>
       </c>
       <c r="I4">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="J4">
-        <v>0.9330000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9315,10 +9318,10 @@
         <v>1.788</v>
       </c>
       <c r="I5">
-        <v>0.369</v>
+        <v>0.399</v>
       </c>
       <c r="J5">
-        <v>0.712</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9347,10 +9350,10 @@
         <v>3.789</v>
       </c>
       <c r="I6">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="J6">
-        <v>0.442</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9379,10 +9382,10 @@
         <v>-3.808</v>
       </c>
       <c r="I7">
-        <v>-0.742</v>
+        <v>-0.765</v>
       </c>
       <c r="J7">
-        <v>0.459</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9408,13 +9411,13 @@
         <v>0.027</v>
       </c>
       <c r="H8">
-        <v>-2.054</v>
+        <v>-2.164</v>
       </c>
       <c r="I8">
-        <v>-1.361</v>
+        <v>-1.295</v>
       </c>
       <c r="J8">
-        <v>0.175</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9443,10 +9446,10 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="I9">
-        <v>0.398</v>
+        <v>0.326</v>
       </c>
       <c r="J9">
-        <v>0.6909999999999999</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9475,10 +9478,10 @@
         <v>0.177</v>
       </c>
       <c r="I10">
-        <v>0.103</v>
+        <v>0.093</v>
       </c>
       <c r="J10">
-        <v>0.918</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9507,10 +9510,10 @@
         <v>-0.848</v>
       </c>
       <c r="I11">
-        <v>-0.477</v>
+        <v>-0.445</v>
       </c>
       <c r="J11">
-        <v>0.634</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9539,10 +9542,10 @@
         <v>-1.249</v>
       </c>
       <c r="I12">
-        <v>-0.681</v>
+        <v>-0.735</v>
       </c>
       <c r="J12">
-        <v>0.497</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9571,10 +9574,10 @@
         <v>1.064</v>
       </c>
       <c r="I13">
-        <v>0.5679999999999999</v>
+        <v>0.612</v>
       </c>
       <c r="J13">
-        <v>0.571</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9603,10 +9606,10 @@
         <v>0.011</v>
       </c>
       <c r="I14">
-        <v>0.444</v>
+        <v>0.513</v>
       </c>
       <c r="J14">
-        <v>0.657</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9635,10 +9638,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.283</v>
+        <v>0.262</v>
       </c>
       <c r="J15">
-        <v>0.778</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9667,10 +9670,10 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <v>0.328</v>
+        <v>0.322</v>
       </c>
       <c r="J16">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9699,10 +9702,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-0.503</v>
+        <v>-0.543</v>
       </c>
       <c r="J17">
-        <v>0.616</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9731,10 +9734,10 @@
         <v>-0.012</v>
       </c>
       <c r="I18">
-        <v>-0.417</v>
+        <v>-0.358</v>
       </c>
       <c r="J18">
-        <v>0.677</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9763,10 +9766,10 @@
         <v>0.021</v>
       </c>
       <c r="I19">
-        <v>0.712</v>
+        <v>0.91</v>
       </c>
       <c r="J19">
-        <v>0.477</v>
+        <v>0.363</v>
       </c>
     </row>
   </sheetData>
@@ -9852,10 +9855,10 @@
         <v>1.653</v>
       </c>
       <c r="I2">
-        <v>0.399</v>
+        <v>0.35</v>
       </c>
       <c r="J2">
-        <v>0.6899999999999999</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9884,10 +9887,10 @@
         <v>-2.103</v>
       </c>
       <c r="I3">
-        <v>-0.591</v>
+        <v>-0.516</v>
       </c>
       <c r="J3">
-        <v>0.555</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9916,10 +9919,10 @@
         <v>-2.6</v>
       </c>
       <c r="I4">
-        <v>-0.492</v>
+        <v>-0.405</v>
       </c>
       <c r="J4">
-        <v>0.623</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9948,10 +9951,10 @@
         <v>-1.444</v>
       </c>
       <c r="I5">
-        <v>-0.254</v>
+        <v>-0.276</v>
       </c>
       <c r="J5">
-        <v>0.799</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9980,10 +9983,10 @@
         <v>1.98</v>
       </c>
       <c r="I6">
-        <v>0.343</v>
+        <v>0.329</v>
       </c>
       <c r="J6">
-        <v>0.732</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10012,10 +10015,10 @@
         <v>-2.678</v>
       </c>
       <c r="I7">
-        <v>-0.445</v>
+        <v>-0.424</v>
       </c>
       <c r="J7">
-        <v>0.657</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10041,13 +10044,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>-1.713</v>
+        <v>-1.87</v>
       </c>
       <c r="I8">
-        <v>-0.967</v>
+        <v>-0.918</v>
       </c>
       <c r="J8">
-        <v>0.334</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10076,10 +10079,10 @@
         <v>1.419</v>
       </c>
       <c r="I9">
-        <v>0.85</v>
+        <v>0.695</v>
       </c>
       <c r="J9">
-        <v>0.396</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10108,10 +10111,10 @@
         <v>1.948</v>
       </c>
       <c r="I10">
-        <v>0.968</v>
+        <v>0.734</v>
       </c>
       <c r="J10">
-        <v>0.334</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10140,10 +10143,10 @@
         <v>0.095</v>
       </c>
       <c r="I11">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="J11">
-        <v>0.964</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10172,10 +10175,10 @@
         <v>-0.496</v>
       </c>
       <c r="I12">
-        <v>-0.23</v>
+        <v>-0.226</v>
       </c>
       <c r="J12">
-        <v>0.8179999999999999</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10204,10 +10207,10 @@
         <v>0.9340000000000001</v>
       </c>
       <c r="I13">
-        <v>0.425</v>
+        <v>0.427</v>
       </c>
       <c r="J13">
-        <v>0.671</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10236,10 +10239,10 @@
         <v>0.014</v>
       </c>
       <c r="I14">
-        <v>0.466</v>
+        <v>0.502</v>
       </c>
       <c r="J14">
-        <v>0.641</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10268,10 +10271,10 @@
         <v>0.004</v>
       </c>
       <c r="I15">
-        <v>0.129</v>
+        <v>0.123</v>
       </c>
       <c r="J15">
-        <v>0.898</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10300,10 +10303,10 @@
         <v>-0.011</v>
       </c>
       <c r="I16">
-        <v>-0.319</v>
+        <v>-0.311</v>
       </c>
       <c r="J16">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10332,10 +10335,10 @@
         <v>-0.022</v>
       </c>
       <c r="I17">
-        <v>-0.643</v>
+        <v>-0.607</v>
       </c>
       <c r="J17">
-        <v>0.521</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10364,10 +10367,10 @@
         <v>-0.045</v>
       </c>
       <c r="I18">
-        <v>-1.339</v>
+        <v>-1.151</v>
       </c>
       <c r="J18">
-        <v>0.182</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10396,10 +10399,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>0.656</v>
+        <v>0.781</v>
       </c>
       <c r="J19">
-        <v>0.512</v>
+        <v>0.435</v>
       </c>
     </row>
   </sheetData>
@@ -10485,10 +10488,10 @@
         <v>2.539</v>
       </c>
       <c r="I2">
-        <v>0.534</v>
+        <v>0.495</v>
       </c>
       <c r="J2">
-        <v>0.594</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10517,10 +10520,10 @@
         <v>-0.855</v>
       </c>
       <c r="I3">
-        <v>-0.209</v>
+        <v>-0.187</v>
       </c>
       <c r="J3">
-        <v>0.834</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10549,10 +10552,10 @@
         <v>-2.184</v>
       </c>
       <c r="I4">
-        <v>-0.36</v>
+        <v>-0.27</v>
       </c>
       <c r="J4">
-        <v>0.719</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10581,10 +10584,10 @@
         <v>-0.883</v>
       </c>
       <c r="I5">
-        <v>-0.136</v>
+        <v>-0.147</v>
       </c>
       <c r="J5">
-        <v>0.892</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10613,10 +10616,10 @@
         <v>4.876</v>
       </c>
       <c r="I6">
-        <v>0.736</v>
+        <v>0.749</v>
       </c>
       <c r="J6">
-        <v>0.462</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10645,10 +10648,10 @@
         <v>-2.074</v>
       </c>
       <c r="I7">
-        <v>-0.3</v>
+        <v>-0.304</v>
       </c>
       <c r="J7">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10674,13 +10677,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-1.048</v>
+        <v>-1.251</v>
       </c>
       <c r="I8">
-        <v>-0.515</v>
+        <v>-0.591</v>
       </c>
       <c r="J8">
-        <v>0.607</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10709,10 +10712,10 @@
         <v>1.154</v>
       </c>
       <c r="I9">
-        <v>0.601</v>
+        <v>0.487</v>
       </c>
       <c r="J9">
-        <v>0.548</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10741,10 +10744,10 @@
         <v>1.677</v>
       </c>
       <c r="I10">
-        <v>0.725</v>
+        <v>0.523</v>
       </c>
       <c r="J10">
-        <v>0.469</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10773,10 +10776,10 @@
         <v>-0.791</v>
       </c>
       <c r="I11">
-        <v>-0.33</v>
+        <v>-0.318</v>
       </c>
       <c r="J11">
-        <v>0.741</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10805,10 +10808,10 @@
         <v>-1.528</v>
       </c>
       <c r="I12">
-        <v>-0.619</v>
+        <v>-0.643</v>
       </c>
       <c r="J12">
-        <v>0.537</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10837,10 +10840,10 @@
         <v>0.502</v>
       </c>
       <c r="I13">
-        <v>0.199</v>
+        <v>0.224</v>
       </c>
       <c r="J13">
-        <v>0.842</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10869,10 +10872,10 @@
         <v>-0.005</v>
       </c>
       <c r="I14">
-        <v>-0.148</v>
+        <v>-0.157</v>
       </c>
       <c r="J14">
-        <v>0.882</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10901,10 +10904,10 @@
         <v>-0.018</v>
       </c>
       <c r="I15">
-        <v>-0.519</v>
+        <v>-0.458</v>
       </c>
       <c r="J15">
-        <v>0.604</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10933,10 +10936,10 @@
         <v>-0.007</v>
       </c>
       <c r="I16">
-        <v>-0.186</v>
+        <v>-0.177</v>
       </c>
       <c r="J16">
-        <v>0.852</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10965,10 +10968,10 @@
         <v>-0.006</v>
       </c>
       <c r="I17">
-        <v>-0.161</v>
+        <v>-0.159</v>
       </c>
       <c r="J17">
-        <v>0.872</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10997,10 +11000,10 @@
         <v>-0.041</v>
       </c>
       <c r="I18">
-        <v>-1.054</v>
+        <v>-0.972</v>
       </c>
       <c r="J18">
-        <v>0.293</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11029,10 +11032,10 @@
         <v>0.053</v>
       </c>
       <c r="I19">
-        <v>1.345</v>
+        <v>1.498</v>
       </c>
       <c r="J19">
-        <v>0.18</v>
+        <v>0.134</v>
       </c>
     </row>
   </sheetData>
@@ -11118,10 +11121,10 @@
         <v>-0.923</v>
       </c>
       <c r="I2">
-        <v>-0.337</v>
+        <v>-0.286</v>
       </c>
       <c r="J2">
-        <v>0.737</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11150,10 +11153,10 @@
         <v>-2.256</v>
       </c>
       <c r="I3">
-        <v>-0.979</v>
+        <v>-0.781</v>
       </c>
       <c r="J3">
-        <v>0.329</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11182,10 +11185,10 @@
         <v>-2.918</v>
       </c>
       <c r="I4">
-        <v>-0.847</v>
+        <v>-0.668</v>
       </c>
       <c r="J4">
-        <v>0.398</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11214,10 +11217,10 @@
         <v>-0.625</v>
       </c>
       <c r="I5">
-        <v>-0.163</v>
+        <v>-0.196</v>
       </c>
       <c r="J5">
-        <v>0.871</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11246,10 +11249,10 @@
         <v>3.834</v>
       </c>
       <c r="I6">
-        <v>0.959</v>
+        <v>0.965</v>
       </c>
       <c r="J6">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11278,10 +11281,10 @@
         <v>6.681</v>
       </c>
       <c r="I7">
-        <v>1.651</v>
+        <v>1.811</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11307,13 +11310,13 @@
         <v>0.049</v>
       </c>
       <c r="H8">
-        <v>-0.372</v>
+        <v>-0.448</v>
       </c>
       <c r="I8">
-        <v>-0.303</v>
+        <v>-0.344</v>
       </c>
       <c r="J8">
-        <v>0.762</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11342,10 +11345,10 @@
         <v>1.664</v>
       </c>
       <c r="I9">
-        <v>1.527</v>
+        <v>1.196</v>
       </c>
       <c r="J9">
-        <v>0.128</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11374,10 +11377,10 @@
         <v>1.77</v>
       </c>
       <c r="I10">
-        <v>1.292</v>
+        <v>0.96</v>
       </c>
       <c r="J10">
-        <v>0.198</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11406,10 +11409,10 @@
         <v>0.303</v>
       </c>
       <c r="I11">
-        <v>0.209</v>
+        <v>0.235</v>
       </c>
       <c r="J11">
-        <v>0.834</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11438,10 +11441,10 @@
         <v>-1.03</v>
       </c>
       <c r="I12">
-        <v>-0.68</v>
+        <v>-0.669</v>
       </c>
       <c r="J12">
-        <v>0.497</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11470,10 +11473,10 @@
         <v>-3.402</v>
       </c>
       <c r="I13">
-        <v>-2.271</v>
+        <v>-2.504</v>
       </c>
       <c r="J13">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11502,10 +11505,10 @@
         <v>0.007</v>
       </c>
       <c r="I14">
-        <v>0.337</v>
+        <v>0.38</v>
       </c>
       <c r="J14">
-        <v>0.736</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11534,10 +11537,10 @@
         <v>-0.005</v>
       </c>
       <c r="I15">
-        <v>-0.241</v>
+        <v>-0.229</v>
       </c>
       <c r="J15">
-        <v>0.8100000000000001</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11566,10 +11569,10 @@
         <v>0.011</v>
       </c>
       <c r="I16">
-        <v>0.464</v>
+        <v>0.39</v>
       </c>
       <c r="J16">
-        <v>0.643</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11598,10 +11601,10 @@
         <v>-0.01</v>
       </c>
       <c r="I17">
-        <v>-0.399</v>
+        <v>-0.363</v>
       </c>
       <c r="J17">
-        <v>0.6899999999999999</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11630,10 +11633,10 @@
         <v>0.004</v>
       </c>
       <c r="I18">
-        <v>0.182</v>
+        <v>0.138</v>
       </c>
       <c r="J18">
-        <v>0.856</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11662,10 +11665,10 @@
         <v>0.027</v>
       </c>
       <c r="I19">
-        <v>1.165</v>
+        <v>0.927</v>
       </c>
       <c r="J19">
-        <v>0.245</v>
+        <v>0.354</v>
       </c>
     </row>
   </sheetData>
@@ -11751,10 +11754,10 @@
         <v>-1.77</v>
       </c>
       <c r="I2">
-        <v>-0.53</v>
+        <v>-0.491</v>
       </c>
       <c r="J2">
-        <v>0.596</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11783,10 +11786,10 @@
         <v>-1.753</v>
       </c>
       <c r="I3">
-        <v>-0.624</v>
+        <v>-0.593</v>
       </c>
       <c r="J3">
-        <v>0.533</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11815,10 +11818,10 @@
         <v>-3.175</v>
       </c>
       <c r="I4">
-        <v>-0.757</v>
+        <v>-0.681</v>
       </c>
       <c r="J4">
-        <v>0.45</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11847,10 +11850,10 @@
         <v>2.214</v>
       </c>
       <c r="I5">
-        <v>0.473</v>
+        <v>0.491</v>
       </c>
       <c r="J5">
-        <v>0.637</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11879,10 +11882,10 @@
         <v>4.206</v>
       </c>
       <c r="I6">
-        <v>0.864</v>
+        <v>0.801</v>
       </c>
       <c r="J6">
-        <v>0.389</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11911,10 +11914,10 @@
         <v>4.496</v>
       </c>
       <c r="I7">
-        <v>0.909</v>
+        <v>0.945</v>
       </c>
       <c r="J7">
-        <v>0.364</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11940,13 +11943,13 @@
         <v>0.033</v>
       </c>
       <c r="H8">
-        <v>-0.137</v>
+        <v>-0.222</v>
       </c>
       <c r="I8">
-        <v>-0.092</v>
+        <v>-0.141</v>
       </c>
       <c r="J8">
-        <v>0.927</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11975,10 +11978,10 @@
         <v>1.663</v>
       </c>
       <c r="I9">
-        <v>1.251</v>
+        <v>1.144</v>
       </c>
       <c r="J9">
-        <v>0.212</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12007,10 +12010,10 @@
         <v>1.467</v>
       </c>
       <c r="I10">
-        <v>0.878</v>
+        <v>0.722</v>
       </c>
       <c r="J10">
-        <v>0.381</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12039,10 +12042,10 @@
         <v>-0.746</v>
       </c>
       <c r="I11">
-        <v>-0.423</v>
+        <v>-0.433</v>
       </c>
       <c r="J11">
-        <v>0.673</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12071,10 +12074,10 @@
         <v>-0.995</v>
       </c>
       <c r="I12">
-        <v>-0.539</v>
+        <v>-0.493</v>
       </c>
       <c r="J12">
-        <v>0.59</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12103,10 +12106,10 @@
         <v>-2.345</v>
       </c>
       <c r="I13">
-        <v>-1.276</v>
+        <v>-1.344</v>
       </c>
       <c r="J13">
-        <v>0.203</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12135,10 +12138,10 @@
         <v>0.012</v>
       </c>
       <c r="I14">
-        <v>0.476</v>
+        <v>0.506</v>
       </c>
       <c r="J14">
-        <v>0.635</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12167,10 +12170,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.133</v>
+        <v>0.127</v>
       </c>
       <c r="J15">
-        <v>0.894</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12199,10 +12202,10 @@
         <v>0.022</v>
       </c>
       <c r="I16">
-        <v>0.772</v>
+        <v>0.677</v>
       </c>
       <c r="J16">
-        <v>0.441</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12231,10 +12234,10 @@
         <v>-0.013</v>
       </c>
       <c r="I17">
-        <v>-0.456</v>
+        <v>-0.38</v>
       </c>
       <c r="J17">
-        <v>0.649</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12263,10 +12266,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>0.673</v>
+        <v>0.582</v>
       </c>
       <c r="J18">
-        <v>0.501</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12295,10 +12298,10 @@
         <v>0.046</v>
       </c>
       <c r="I19">
-        <v>1.667</v>
+        <v>1.355</v>
       </c>
       <c r="J19">
-        <v>0.097</v>
+        <v>0.175</v>
       </c>
     </row>
   </sheetData>
@@ -12391,10 +12394,10 @@
         <v>-3.412</v>
       </c>
       <c r="J2">
-        <v>-0.881</v>
+        <v>-0.841</v>
       </c>
       <c r="K2">
-        <v>0.379</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12426,10 +12429,10 @@
         <v>-3.068</v>
       </c>
       <c r="J3">
-        <v>-0.9419999999999999</v>
+        <v>-1.021</v>
       </c>
       <c r="K3">
-        <v>0.347</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12461,10 +12464,10 @@
         <v>-5.808</v>
       </c>
       <c r="J4">
-        <v>-1.196</v>
+        <v>-1.036</v>
       </c>
       <c r="K4">
-        <v>0.233</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12496,10 +12499,10 @@
         <v>-0.31</v>
       </c>
       <c r="J5">
-        <v>-0.057</v>
+        <v>-0.054</v>
       </c>
       <c r="K5">
-        <v>0.955</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12531,10 +12534,10 @@
         <v>3.614</v>
       </c>
       <c r="J6">
-        <v>0.639</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="K6">
-        <v>0.524</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12566,10 +12569,10 @@
         <v>5.502</v>
       </c>
       <c r="J7">
-        <v>0.958</v>
+        <v>0.845</v>
       </c>
       <c r="K7">
-        <v>0.339</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12598,13 +12601,13 @@
         <v>0.024</v>
       </c>
       <c r="I8">
-        <v>0.147</v>
+        <v>0.096</v>
       </c>
       <c r="J8">
-        <v>0.08400000000000001</v>
+        <v>0.054</v>
       </c>
       <c r="K8">
-        <v>0.9330000000000001</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12636,10 +12639,10 @@
         <v>2.359</v>
       </c>
       <c r="J9">
-        <v>1.531</v>
+        <v>1.452</v>
       </c>
       <c r="K9">
-        <v>0.127</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12671,10 +12674,10 @@
         <v>3.202</v>
       </c>
       <c r="J10">
-        <v>1.657</v>
+        <v>1.303</v>
       </c>
       <c r="K10">
-        <v>0.099</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12706,10 +12709,10 @@
         <v>0.075</v>
       </c>
       <c r="J11">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="K11">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12741,10 +12744,10 @@
         <v>-0.396</v>
       </c>
       <c r="J12">
-        <v>-0.185</v>
+        <v>-0.157</v>
       </c>
       <c r="K12">
-        <v>0.853</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12776,10 +12779,10 @@
         <v>-2.846</v>
       </c>
       <c r="J13">
-        <v>-1.335</v>
+        <v>-1.239</v>
       </c>
       <c r="K13">
-        <v>0.183</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12811,10 +12814,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>0.295</v>
+        <v>0.303</v>
       </c>
       <c r="K14">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12846,10 +12849,10 @@
         <v>-0.005</v>
       </c>
       <c r="J15">
-        <v>-0.157</v>
+        <v>-0.147</v>
       </c>
       <c r="K15">
-        <v>0.876</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -12881,10 +12884,10 @@
         <v>0.008</v>
       </c>
       <c r="J16">
-        <v>0.23</v>
+        <v>0.191</v>
       </c>
       <c r="K16">
-        <v>0.8179999999999999</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -12916,10 +12919,10 @@
         <v>-0.025</v>
       </c>
       <c r="J17">
-        <v>-0.736</v>
+        <v>-0.551</v>
       </c>
       <c r="K17">
-        <v>0.462</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -12951,10 +12954,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J18">
-        <v>-0.264</v>
+        <v>-0.22</v>
       </c>
       <c r="K18">
-        <v>0.792</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12986,10 +12989,10 @@
         <v>0.043</v>
       </c>
       <c r="J19">
-        <v>1.314</v>
+        <v>1.153</v>
       </c>
       <c r="K19">
-        <v>0.19</v>
+        <v>0.249</v>
       </c>
     </row>
   </sheetData>
@@ -13117,10 +13120,10 @@
         <v>-1.892</v>
       </c>
       <c r="J3">
-        <v>-0.502</v>
+        <v>-0.487</v>
       </c>
       <c r="K3">
-        <v>0.616</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13152,10 +13155,10 @@
         <v>-5.034</v>
       </c>
       <c r="J4">
-        <v>-0.896</v>
+        <v>-0.752</v>
       </c>
       <c r="K4">
-        <v>0.371</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13187,10 +13190,10 @@
         <v>-0.656</v>
       </c>
       <c r="J5">
-        <v>-0.104</v>
+        <v>-0.098</v>
       </c>
       <c r="K5">
-        <v>0.917</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13222,10 +13225,10 @@
         <v>3.735</v>
       </c>
       <c r="J6">
-        <v>0.572</v>
+        <v>0.468</v>
       </c>
       <c r="K6">
-        <v>0.5679999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13257,10 +13260,10 @@
         <v>6.572</v>
       </c>
       <c r="J7">
-        <v>0.991</v>
+        <v>0.899</v>
       </c>
       <c r="K7">
-        <v>0.322</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13289,13 +13292,13 @@
         <v>0.019</v>
       </c>
       <c r="I8">
-        <v>-0.628</v>
+        <v>-0.713</v>
       </c>
       <c r="J8">
-        <v>-0.313</v>
+        <v>-0.347</v>
       </c>
       <c r="K8">
-        <v>0.755</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13327,10 +13330,10 @@
         <v>2.048</v>
       </c>
       <c r="J9">
-        <v>1.149</v>
+        <v>1.026</v>
       </c>
       <c r="K9">
-        <v>0.252</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13362,10 +13365,10 @@
         <v>2.915</v>
       </c>
       <c r="J10">
-        <v>1.304</v>
+        <v>0.987</v>
       </c>
       <c r="K10">
-        <v>0.194</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13397,10 +13400,10 @@
         <v>-0.324</v>
       </c>
       <c r="J11">
-        <v>-0.137</v>
+        <v>-0.129</v>
       </c>
       <c r="K11">
-        <v>0.891</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13432,10 +13435,10 @@
         <v>-0.42</v>
       </c>
       <c r="J12">
-        <v>-0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="K12">
-        <v>0.865</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13467,10 +13470,10 @@
         <v>-3.825</v>
       </c>
       <c r="J13">
-        <v>-1.556</v>
+        <v>-1.442</v>
       </c>
       <c r="K13">
-        <v>0.121</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13502,10 +13505,10 @@
         <v>0.002</v>
       </c>
       <c r="J14">
-        <v>0.073</v>
+        <v>0.092</v>
       </c>
       <c r="K14">
-        <v>0.9419999999999999</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13537,10 +13540,10 @@
         <v>-0.021</v>
       </c>
       <c r="J15">
-        <v>-0.604</v>
+        <v>-0.64</v>
       </c>
       <c r="K15">
-        <v>0.547</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13572,10 +13575,10 @@
         <v>-0.016</v>
       </c>
       <c r="J16">
-        <v>-0.42</v>
+        <v>-0.38</v>
       </c>
       <c r="K16">
-        <v>0.675</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13607,10 +13610,10 @@
         <v>-0.029</v>
       </c>
       <c r="J17">
-        <v>-0.755</v>
+        <v>-0.577</v>
       </c>
       <c r="K17">
-        <v>0.451</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13642,10 +13645,10 @@
         <v>-0.013</v>
       </c>
       <c r="J18">
-        <v>-0.346</v>
+        <v>-0.33</v>
       </c>
       <c r="K18">
-        <v>0.73</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13677,10 +13680,10 @@
         <v>0.059</v>
       </c>
       <c r="J19">
-        <v>1.571</v>
+        <v>1.649</v>
       </c>
       <c r="K19">
-        <v>0.118</v>
+        <v>0.099</v>
       </c>
     </row>
   </sheetData>
@@ -13766,10 +13769,10 @@
         <v>-0.665</v>
       </c>
       <c r="I2">
-        <v>-0.232</v>
+        <v>-0.22</v>
       </c>
       <c r="J2">
-        <v>0.8159999999999999</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13798,10 +13801,10 @@
         <v>-1.295</v>
       </c>
       <c r="I3">
-        <v>-0.5600000000000001</v>
+        <v>-0.394</v>
       </c>
       <c r="J3">
-        <v>0.576</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13830,10 +13833,10 @@
         <v>2.975</v>
       </c>
       <c r="I4">
-        <v>0.8110000000000001</v>
+        <v>0.668</v>
       </c>
       <c r="J4">
-        <v>0.419</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13862,10 +13865,10 @@
         <v>-1.6</v>
       </c>
       <c r="I5">
-        <v>-0.395</v>
+        <v>-0.399</v>
       </c>
       <c r="J5">
-        <v>0.6929999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13894,10 +13897,10 @@
         <v>5.697</v>
       </c>
       <c r="I6">
-        <v>1.359</v>
+        <v>1.641</v>
       </c>
       <c r="J6">
-        <v>0.176</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13926,10 +13929,10 @@
         <v>9.032999999999999</v>
       </c>
       <c r="I7">
-        <v>2.131</v>
+        <v>2.905</v>
       </c>
       <c r="J7">
-        <v>0.034</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13955,13 +13958,13 @@
         <v>0.06</v>
       </c>
       <c r="H8">
-        <v>-0.758</v>
+        <v>-0.801</v>
       </c>
       <c r="I8">
-        <v>-0.587</v>
+        <v>-0.618</v>
       </c>
       <c r="J8">
-        <v>0.5580000000000001</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13990,10 +13993,10 @@
         <v>0.971</v>
       </c>
       <c r="I9">
-        <v>0.875</v>
+        <v>0.602</v>
       </c>
       <c r="J9">
-        <v>0.383</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14022,10 +14025,10 @@
         <v>-0.912</v>
       </c>
       <c r="I10">
-        <v>-0.627</v>
+        <v>-0.51</v>
       </c>
       <c r="J10">
-        <v>0.532</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14054,10 +14057,10 @@
         <v>0.836</v>
       </c>
       <c r="I11">
-        <v>0.549</v>
+        <v>0.541</v>
       </c>
       <c r="J11">
-        <v>0.584</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14086,10 +14089,10 @@
         <v>-1.202</v>
       </c>
       <c r="I12">
-        <v>-0.753</v>
+        <v>-0.869</v>
       </c>
       <c r="J12">
-        <v>0.452</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14118,10 +14121,10 @@
         <v>-3.847</v>
       </c>
       <c r="I13">
-        <v>-2.467</v>
+        <v>-3.285</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14150,10 +14153,10 @@
         <v>0.001</v>
       </c>
       <c r="I14">
-        <v>0.065</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J14">
-        <v>0.948</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14182,10 +14185,10 @@
         <v>-0.006</v>
       </c>
       <c r="I15">
-        <v>-0.266</v>
+        <v>-0.22</v>
       </c>
       <c r="J15">
-        <v>0.79</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14214,10 +14217,10 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <v>0.392</v>
+        <v>0.357</v>
       </c>
       <c r="J16">
-        <v>0.696</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14246,10 +14249,10 @@
         <v>-0.031</v>
       </c>
       <c r="I17">
-        <v>-1.264</v>
+        <v>-1.055</v>
       </c>
       <c r="J17">
-        <v>0.208</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14278,10 +14281,10 @@
         <v>-0.003</v>
       </c>
       <c r="I18">
-        <v>-0.122</v>
+        <v>-0.103</v>
       </c>
       <c r="J18">
-        <v>0.903</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14310,10 +14313,10 @@
         <v>0.003</v>
       </c>
       <c r="I19">
-        <v>0.121</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J19">
-        <v>0.904</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
